--- a/final_year_project/log/output.xlsx
+++ b/final_year_project/log/output.xlsx
@@ -1,26 +1,191 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\PythonProjects\FYP_Github\FYP-FaceVerification\final_year_project\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5475216-028E-46DB-8A22-17489065DA5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+  <si>
+    <t>Fold number</t>
+  </si>
+  <si>
+    <t>Training epoch</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>train_acc</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
+  </si>
+  <si>
+    <t>valid_acc</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>0.7781779766082764</t>
+  </si>
+  <si>
+    <t>0.5485000610351562</t>
+  </si>
+  <si>
+    <t>0.6437919735908508</t>
+  </si>
+  <si>
+    <t>0.9230145215988159</t>
+  </si>
+  <si>
+    <t>0.7303394079208374</t>
+  </si>
+  <si>
+    <t>0.6262476444244385</t>
+  </si>
+  <si>
+    <t>0.8794388771057129</t>
+  </si>
+  <si>
+    <t>0.5383219718933105</t>
+  </si>
+  <si>
+    <t>0.6288197040557861</t>
+  </si>
+  <si>
+    <t>0.650917649269104</t>
+  </si>
+  <si>
+    <t>0.674201488494873</t>
+  </si>
+  <si>
+    <t>0.6470625400543213</t>
+  </si>
+  <si>
+    <t>1.053181529045105</t>
+  </si>
+  <si>
+    <t>0.5736278891563416</t>
+  </si>
+  <si>
+    <t>0.8665369749069214</t>
+  </si>
+  <si>
+    <t>0.4348286986351013</t>
+  </si>
+  <si>
+    <t>0.8716618418693542</t>
+  </si>
+  <si>
+    <t>0.9268662929534912</t>
+  </si>
+  <si>
+    <t>0.7083333730697632</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.8333333730697632</t>
+  </si>
+  <si>
+    <t>0.5416666865348816</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.7916666865348816</t>
+  </si>
+  <si>
+    <t>0.6666666865348816</t>
+  </si>
+  <si>
+    <t>0.7451504468917847</t>
+  </si>
+  <si>
+    <t>0.7399020195007324</t>
+  </si>
+  <si>
+    <t>0.5505398511886597</t>
+  </si>
+  <si>
+    <t>0.8898887634277344</t>
+  </si>
+  <si>
+    <t>0.4670671224594116</t>
+  </si>
+  <si>
+    <t>0.8140701055526733</t>
+  </si>
+  <si>
+    <t>0.8989976644515991</t>
+  </si>
+  <si>
+    <t>0.5567340850830078</t>
+  </si>
+  <si>
+    <t>0.2993323802947998</t>
+  </si>
+  <si>
+    <t>0.8621184229850769</t>
+  </si>
+  <si>
+    <t>0.7714814814814814</t>
+  </si>
+  <si>
+    <t>0.7627777777777778</t>
+  </si>
+  <si>
+    <t>0.8012962962962963</t>
+  </si>
+  <si>
+    <t>0.7918518518518518</t>
+  </si>
+  <si>
+    <t>0.7916666666666666</t>
+  </si>
+  <si>
+    <t>0.8044444444444444</t>
+  </si>
+  <si>
+    <t>0.7524074074074074</t>
+  </si>
+  <si>
+    <t>0.7903703703703704</t>
+  </si>
+  <si>
+    <t>0.7683333333333333</t>
+  </si>
+  <si>
+    <t>0.7953703703703704</t>
+  </si>
+  <si>
+    <t>100-k</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +193,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +242,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +302,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +367,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +447,903 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.92217767238616943</v>
+      </c>
+      <c r="E2">
+        <v>0.625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.68841713666915894</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>